--- a/elml/data/excel2/new_pred_2.xlsx
+++ b/elml/data/excel2/new_pred_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9932,7 +9932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2744"/>
   <sheetViews>
-    <sheetView topLeftCell="A2610" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2408" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I2744"/>
     </sheetView>
   </sheetViews>
@@ -89531,8 +89531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
